--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Extrinsic compressing mass on esophagus_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Extrinsic compressing mass on esophagus_spec_overall.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soc" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obj" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Difficulty swallowing liquids is present.</t>
+          <t>Difficulty swallowing solids is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia, particularly for liquids, can indicate an obstruction or compression in the esophagus, supporting the presence of an extrinsic mass.</t>
+          <t>Difficulty swallowing solids is a common symptom of an extrinsic compressing mass on the esophagus, as the mass can physically obstruct the passage of solid food.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hoarse voice reported is absent.</t>
+          <t>Raynauds phenomenon reported is present.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A hoarse voice can indicate laryngeal involvement or compression, which is less likely if the voice is normal, suggesting no extrinsic mass affecting the larynx.</t>
+          <t>Raynaud's phenomenon is more commonly associated with connective tissue disorders rather than an extrinsic compressing mass on the esophagus.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solids is present.</t>
+          <t>Difficulty swallowing liquids is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Similar to liquids, difficulty swallowing solids suggests a structural issue in the esophagus, which could be due to an extrinsic compressing mass.</t>
+          <t>Difficulty swallowing liquids, although less common than solids, can occur with significant esophageal compression, indicating a severe obstruction.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cough reported is absent.</t>
+          <t>Telangiectasias reported is present.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of a cough may suggest that there is no significant irritation or obstruction in the airway or esophagus, which would be expected with an extrinsic mass.</t>
+          <t>Telangiectasias are typically associated with systemic sclerosis or other connective tissue diseases, not with an extrinsic compressing mass.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Weight loss reported is present.</t>
+          <t>Non-progressive dysphagia: liquids throughout difficulty swallowing is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Unintentional weight loss can be a sign of significant esophageal obstruction or malignancy, which aligns with the presence of an extrinsic mass.</t>
+          <t>Non-progressive dysphagia with difficulty swallowing liquids suggests a structural cause like an extrinsic mass, rather than a motility disorder.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Globus sensation is absent.</t>
+          <t>Hand pain out of proportion to other joints is present.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of a globus sensation, which is often associated with esophageal issues, may indicate that there is no extrinsic mass causing compression.</t>
+          <t>This symptom is more indicative of a rheumatologic condition rather than an extrinsic compressing mass on the esophagus.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pain when swallowing (aka odynophagia) is present.</t>
+          <t>Weight loss reported is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Odynophagia can occur due to irritation or obstruction in the esophagus, which may be caused by an extrinsic compressing mass.</t>
+          <t>Weight loss can occur due to reduced intake from dysphagia caused by an extrinsic compressing mass.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nausea and/or vomiting is absent.</t>
+          <t>Current heartburn is present.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of nausea or vomiting may suggest that there is no significant obstruction or mass affecting the gastrointestinal tract.</t>
+          <t>Heartburn is more commonly associated with gastroesophageal reflux disease (GERD) rather than an extrinsic compressing mass.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onset of chest pain associated with eating food is present.</t>
+          <t>Pain when swallowing (aka odynophagia) is present.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chest pain related to eating can indicate esophageal obstruction or irritation, which supports the diagnosis of an extrinsic compressing mass.</t>
+          <t>Odynophagia can be associated with esophageal compression, as the mass may cause irritation or inflammation.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Shortness of breath is absent.</t>
+          <t>Current reflux is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of shortness of breath may indicate that there is no significant mediastinal or thoracic mass affecting respiratory function, which would be expected with an extrinsic compressing mass.</t>
+          <t>Reflux symptoms are typically related to GERD and not directly indicative of an extrinsic compressing mass.</t>
         </is>
       </c>
     </row>
@@ -612,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Certain studies suggest that females may have a higher incidence of certain types of esophageal conditions, including extrinsic compressing masses.</t>
+          <t>Being female may be associated with certain conditions that can lead to extrinsic compression of the esophagus, such as certain types of tumors or masses.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alcohol use disorder is absent</t>
+          <t>Alcohol use disorder is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Alcohol use disorder is a known risk factor for esophageal conditions; its absence may suggest a lower likelihood of related compressive masses.</t>
+          <t>Alcohol use disorder can lead to conditions like esophageal varices, which might mimic or contribute to compression symptoms.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Middle age is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Middle age is a demographic where the risk for various esophageal conditions, including extrinsic compressing masses, increases.</t>
+          <t>Middle age is a time when certain conditions that can cause extrinsic compression, such as thyroid enlargement or mediastinal masses, may become more prevalent.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nicotine dependence is absent</t>
+          <t>Nicotine dependence is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nicotine dependence is another risk factor for esophageal issues; its absence further reduces the likelihood of extrinsic compressing masses.</t>
+          <t>Nicotine dependence is a risk factor for certain cancers that could cause extrinsic compression.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>Takes amlodipine is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amlodipine is a medication that can be associated with vascular conditions; while not directly linked, it may suggest underlying vascular issues that could contribute to extrinsic compression.</t>
+          <t>Amlodipine is used for hypertension, which can be associated with vascular changes that might contribute to esophageal compression.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Environmental allergies are absent</t>
+          <t>Obesity is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>While not directly related, the absence of environmental allergies may suggest a lower likelihood of inflammatory conditions that could lead to esophageal compression.</t>
+          <t>Obesity can lead to increased abdominal pressure and conditions like hiatal hernia, which might contribute to esophageal compression.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of prior treatment with radiation to the neck, arm, or jaw</t>
+          <t>Absence of prior treatment with radiation to the neck, arm, or jaw.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While the absence of radiation treatment does not directly support the diagnosis, it indicates that there are no known prior causes of esophageal compression from radiation, which could otherwise complicate the diagnosis.</t>
+          <t>While the absence of radiation treatment does not directly support the diagnosis, it does not rule out other causes of extrinsic compression.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Asthma is absent</t>
+          <t>Type 2 diabetes is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Asthma can be associated with esophageal issues; its absence may indicate a lower risk for conditions that could lead to extrinsic compression.</t>
+          <t>Diabetes can be associated with conditions like gastroparesis, which might indirectly affect esophageal function.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of obesity</t>
+          <t>Absence of diagnosed hypertension.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Obesity is a risk factor for many esophageal conditions; its absence may suggest a lower likelihood of certain compressive masses related to obesity.</t>
+          <t>The absence of hypertension might suggest that any esophageal compression is not related to vascular causes, potentially pointing to other extrinsic factors.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Eczema is absent</t>
+          <t>Asthma is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Eczema is part of a broader spectrum of atopic conditions; its absence may suggest a lower likelihood of related esophageal issues.</t>
+          <t>Asthma can be associated with GERD, which might mimic symptoms of esophageal compression.</t>
         </is>
       </c>
     </row>
@@ -763,44 +764,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Recent social stress is present.</t>
+          <t>Prior tobacco use is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Social stress can contribute to various health issues, including the development of masses that may compress the esophagus.</t>
+          <t>Tobacco use, even if prior, can be associated with conditions that may lead to masses or growths that could compress the esophagus.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alcohol use is absent.</t>
+          <t>Family history of cancer is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of alcohol use reduces the risk of esophageal conditions that could lead to extrinsic masses.</t>
+          <t>The absence of a family history of cancer reduces the likelihood of a genetic predisposition to tumor formation, which could lead to an extrinsic mass.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Prior tobacco use is present.</t>
+          <t>Recent social stress is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tobacco use is a known risk factor for various cancers, which can lead to extrinsic masses affecting the esophagus.</t>
+          <t>Social stress can sometimes correlate with lifestyle factors that may contribute to the development of masses, although this is a weaker association.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent.</t>
+          <t>Alcohol use is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Current tobacco use is a significant risk factor for esophageal issues; its absence suggests a lower likelihood of related masses.</t>
+          <t>The absence of alcohol use reduces the risk of certain conditions that could lead to the development of masses compressing the esophagus.</t>
         </is>
       </c>
     </row>
@@ -812,29 +813,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A family history of cardiovascular issues may suggest a genetic predisposition to conditions that could lead to extrinsic compressing masses.</t>
+          <t>While not directly related, a family history of cardiovascular issues might suggest a predisposition to other systemic conditions that could indirectly relate to mass formation.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent Travel is absent.</t>
+          <t>Current tobacco use is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of recent travel may indicate a lower risk of infections or conditions that could lead to extrinsic masses.</t>
+          <t>The absence of current tobacco use decreases the likelihood of conditions that could lead to mass formation.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of Rheumatoid Arthritis is absent.</t>
+          <t>Family history of cancer is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of autoimmune diseases like rheumatoid arthritis may suggest a lower likelihood of inflammatory processes that could lead to esophageal compression.</t>
+          <t>The absence of a family history of cancer does not strongly support the presence of an extrinsic mass, but it does not rule it out either.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -844,19 +845,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of recent medical procedures reduces the likelihood of complications that could lead to extrinsic compression.</t>
+          <t>The absence of recent medical procedures reduces the likelihood of iatrogenic causes of esophageal compression.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent.</t>
+          <t>Recent Travel is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>While the absence of cancer history is generally a negative finding, it may suggest a lower likelihood of malignancies causing extrinsic compression.</t>
+          <t>The absence of recent travel does not directly support the presence of an extrinsic mass but eliminates certain infectious causes that could mimic such a presentation.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of gestational complications suggests a lower likelihood of related health issues that could contribute to esophageal masses.</t>
+          <t>The absence of gestational complications suggests no history of conditions that might predispose to mass formation.</t>
         </is>
       </c>
     </row>
@@ -914,110 +915,261 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Weight loss on vitals is present</t>
+          <t>Weight loss on vitals is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Weight loss can occur due to difficulty swallowing or eating, which may be caused by an extrinsic compressing mass on the esophagus.</t>
+          <t>Weight loss can be associated with difficulty swallowing or reduced intake due to esophageal compression.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon on exam is absent</t>
+          <t>Cough observed is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon suggests that there is no significant vascular or connective tissue disease that could lead to esophageal compression.</t>
+          <t>Cough can be a symptom of esophageal compression due to irritation or aspiration, so its absence argues against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Telangiectasias on exam is present</t>
+          <t>Telangiectasias on exam is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasias can be associated with certain conditions that may also lead to extrinsic compression of the esophagus, suggesting a possible underlying pathology.</t>
+          <t>Telangiectasias can be associated with systemic conditions that might also cause extrinsic compression on the esophagus.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent</t>
+          <t>Epigastric pain on palpation is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice indicates that there is likely no compression of the recurrent laryngeal nerve, which would be expected if there were an extrinsic mass affecting the esophagus.</t>
+          <t>Epigastric pain might be expected if there is significant esophageal or gastric involvement, so its absence is against the diagnosis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cough observed is absent</t>
+          <t>Halitosis observed is absent.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The absence of cough may suggest that there is no irritation or obstruction in the airway, which could indicate that the esophagus is being compressed rather than the trachea.</t>
+          <t>While halitosis is not present, its absence does not strongly argue against esophageal issues, as it is not a specific finding.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cough observed is absent</t>
+          <t>Hand thickening observed is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of cough suggests that there is no irritation or obstruction in the airway, which may argue against the presence of an extrinsic mass affecting the esophagus.</t>
+          <t>Hand thickening could suggest systemic sclerosis, which might cause esophageal issues, so its absence argues against related systemic causes.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent</t>
+          <t>Neck masses or fullness observed is absent.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of a hoarse voice suggests that there is no involvement of the laryngeal nerves, which may indicate that the mass is not affecting the surrounding structures significantly.</t>
+          <t>Absence of neck masses does not rule out other thoracic or mediastinal masses causing esophageal compression.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Epigastric pain on palpation is absent</t>
+          <t>Finger ulcers observed is absent.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of epigastric pain may suggest that there is no significant gastrointestinal pathology, including an extrinsic mass compressing the esophagus.</t>
+          <t>Finger ulcers could indicate systemic conditions that might also cause esophageal compression, so their absence argues against such conditions.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Neck masses or fullness observed is absent</t>
+          <t>Hoarse voice observed is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of neck masses or fullness may suggest that there is no significant external compression from a mass in the neck region, which could support the idea of an internal esophageal mass.</t>
+          <t>While hoarseness can occur with esophageal compression, its absence does not strongly rule out the condition.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Neck masses or fullness observed is absent</t>
+          <t>Weakness on exam is absent.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of neck masses or fullness suggests that there is no significant external compression from a mass in the neck region, which could argue against the presence of an extrinsic mass.</t>
+          <t>General weakness might be expected in systemic conditions causing esophageal compression, so its absence argues against such conditions.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Extrinsic compressing mass on esophagus</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale for Extrinsic compressing mass on esophagus</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Against Extrinsic compressing mass on esophagus</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Against Extrinsic compressing mass on esophagus</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>None of the findings strongly support Extrinsic compressing mass on esophagus.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>The provided findings do not have a high likelihood ratio for supporting the presence of an extrinsic compressing mass on the esophagus.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A widened mediastinum on chest X-ray (CXR) is often associated with masses in the mediastinum, including those compressing the esophagus. Its absence reduces the likelihood of an extrinsic compressing mass.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>None of the findings strongly support Extrinsic compressing mass on esophagus.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The provided findings do not have a high likelihood ratio for supporting the presence of an extrinsic compressing mass on the esophagus.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>While interstitial lung disease (ILD) is not directly related to esophageal compression, its absence on CT scan suggests no significant thoracic abnormalities, indirectly reducing the likelihood of a compressing mass.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>None of the findings strongly support Extrinsic compressing mass on esophagus.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The provided findings do not have a high likelihood ratio for supporting the presence of an extrinsic compressing mass on the esophagus.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Aspiration on a modified barium swallow (MBS) study can indicate esophageal dysfunction, which might be caused by compression. Its absence suggests normal esophageal function.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>None of the findings strongly support Extrinsic compressing mass on esophagus.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The provided findings do not have a high likelihood ratio for supporting the presence of an extrinsic compressing mass on the esophagus.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>While not directly related to esophageal compression, the absence of a strong positive antinuclear antibody (ANA) test suggests no autoimmune process that might cause esophageal dysfunction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>None of the findings strongly support Extrinsic compressing mass on esophagus.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The provided findings do not have a high likelihood ratio for supporting the presence of an extrinsic compressing mass on the esophagus.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is unrelated to esophageal compression and does not support the presence of an extrinsic compressing mass.</t>
         </is>
       </c>
     </row>
